--- a/Costestimate.xlsx
+++ b/Costestimate.xlsx
@@ -24,62 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Project Cost Estimation</t>
   </si>
   <si>
-    <t>S.No</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Estimated Hours per week</t>
-  </si>
-  <si>
-    <t>Required Hours</t>
-  </si>
-  <si>
-    <t>Rajeshwari</t>
-  </si>
-  <si>
-    <t>Chandu</t>
-  </si>
-  <si>
-    <t>Raju Nooka</t>
-  </si>
-  <si>
-    <t>Vishal</t>
-  </si>
-  <si>
     <t>Rohith Chittimalla</t>
   </si>
   <si>
-    <t>Avg.cost per week</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Total Cost in month</t>
-  </si>
-  <si>
-    <t>Puneeth</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
     <t>Senior Developer</t>
   </si>
   <si>
-    <t>Junior Developer</t>
-  </si>
-  <si>
-    <t>Team lead</t>
-  </si>
-  <si>
     <t>UI Developer</t>
   </si>
   <si>
@@ -87,14 +45,103 @@
   </si>
   <si>
     <t>QA Analyst</t>
+  </si>
+  <si>
+    <t>Work Breakdown Structure Categories</t>
+  </si>
+  <si>
+    <t>Total Team Cost</t>
+  </si>
+  <si>
+    <t>No. of Hours per week</t>
+  </si>
+  <si>
+    <t>Total cost per week</t>
+  </si>
+  <si>
+    <t>Total cost for three sprints</t>
+  </si>
+  <si>
+    <t>Initiating</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UI Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Synthesis of Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Implementation Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Early release and contract finalization</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PWA Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Android/IOS implementation</t>
+  </si>
+  <si>
+    <t>Monitoring and controlling</t>
+  </si>
+  <si>
+    <t>Closing</t>
+  </si>
+  <si>
+    <t>Team-03, Section-02, Dr. Denise Case</t>
+  </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Hourly Rate</t>
+  </si>
+  <si>
+    <t>Rajeshwari Rudravaram</t>
+  </si>
+  <si>
+    <t>Puneeth Annam</t>
+  </si>
+  <si>
+    <t>Nooka Raju Boddu</t>
+  </si>
+  <si>
+    <t>Vishal Reddy</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Frontend Developer</t>
+  </si>
+  <si>
+    <t>Chandrakanth Polisetty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -163,20 +210,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -205,10 +260,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1552575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -218,7 +273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="238126" y="571500"/>
-          <a:ext cx="3438524" cy="1038225"/>
+          <a:ext cx="2876549" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,339 +647,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="D1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
+        <v>340</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <f>B11*C11</f>
+        <v>2720</v>
+      </c>
+      <c r="E11" s="9">
+        <f>$D11*6</f>
+        <v>16320</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="12">
+        <v>70</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <v>340</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8">
+        <f>B12*C12</f>
+        <v>4080</v>
+      </c>
+      <c r="E12" s="8">
+        <f>D12*6</f>
+        <v>24480</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="12">
+        <v>45</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8">
+        <v>340</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8">
+        <f>B13*C13</f>
+        <v>4080</v>
+      </c>
+      <c r="E13" s="8">
+        <f>D13*6</f>
+        <v>24480</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="H13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="12">
+        <v>60</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <f>--D8</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12">
+        <v>52</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="12">
+        <v>55</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="12">
+        <v>58</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8">
+        <v>340</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8">
+        <f>B18*C18</f>
+        <v>4080</v>
+      </c>
+      <c r="E18" s="8">
+        <f>D18*6</f>
+        <v>24480</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8">
+        <v>340</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <f>B22*C22</f>
+        <v>3400</v>
+      </c>
+      <c r="E22" s="8">
+        <f>D22*6</f>
+        <v>20400</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="8">
+        <v>340</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8">
+        <f>B23*C23</f>
+        <v>3400</v>
+      </c>
+      <c r="E23" s="8">
+        <f>D23*6</f>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4400</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4400</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G13" s="4">
-        <v>4400</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4400</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4400</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4400</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>84</v>
-      </c>
-      <c r="E17" s="3">
-        <v>72</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6600</v>
-      </c>
-      <c r="G17" s="4">
-        <v>26400</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8">
+        <f>E11+E12+E13+E18+E22+E23</f>
+        <v>130560</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Costestimate.xlsx
+++ b/Costestimate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538098\Documents\563\GDP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -122,9 +122,6 @@
     <t>Nooka Raju Boddu</t>
   </si>
   <si>
-    <t>Vishal Reddy</t>
-  </si>
-  <si>
     <t>Team Lead</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Chandrakanth Polisetty</t>
+  </si>
+  <si>
+    <t>Vishal Reddy Vennavaram</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -225,13 +225,13 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -358,16 +358,6 @@
               </a:ln>
             </a:rPr>
             <a:t>End Date:12/09/2020</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>Total #Deliverable:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -649,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +650,7 @@
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -687,8 +677,8 @@
       <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -742,9 +732,9 @@
         <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="12">
+        <v>32</v>
+      </c>
+      <c r="I11" s="10">
         <v>70</v>
       </c>
       <c r="J11" s="5"/>
@@ -775,7 +765,7 @@
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>45</v>
       </c>
       <c r="J12" s="5"/>
@@ -806,7 +796,7 @@
       <c r="H13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>60</v>
       </c>
       <c r="J13" s="5"/>
@@ -831,12 +821,12 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>52</v>
       </c>
       <c r="J14" s="5"/>
@@ -865,7 +855,7 @@
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>55</v>
       </c>
       <c r="J15" s="5"/>
@@ -889,12 +879,12 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="12">
+        <v>33</v>
+      </c>
+      <c r="I16" s="10">
         <v>58</v>
       </c>
       <c r="J16" s="5"/>

--- a/Costestimate.xlsx
+++ b/Costestimate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538098\Documents\563\GDP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s538293\Desktop\GDP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Costestimate.xlsx
+++ b/Costestimate.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s538293\Desktop\GDP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538308\Documents\gdp\GDP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360923C4-EF1F-4824-8C0C-FA566F40C686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7290"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -267,7 +276,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -317,7 +332,7 @@
                 <a:noFill/>
               </a:ln>
             </a:rPr>
-            <a:t> Treasure Hunt</a:t>
+            <a:t> Lost Treasure</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -636,26 +651,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -668,19 +683,19 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -709,7 +724,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -740,7 +755,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -771,7 +786,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -802,7 +817,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -832,7 +847,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -861,7 +876,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -890,7 +905,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -910,7 +925,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -934,7 +949,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -959,7 +974,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -984,7 +999,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1009,7 +1024,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1049,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1068,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>

--- a/Costestimate.xlsx
+++ b/Costestimate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538308\Documents\gdp\GDP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538098\Documents\563\GDP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360923C4-EF1F-4824-8C0C-FA566F40C686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,9 +49,6 @@
     <t>UI Developer</t>
   </si>
   <si>
-    <t>Backend Developer</t>
-  </si>
-  <si>
     <t>QA Analyst</t>
   </si>
   <si>
@@ -141,12 +137,15 @@
   </si>
   <si>
     <t>Vishal Reddy Vennavaram</t>
+  </si>
+  <si>
+    <t>Backend  Developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -651,26 +650,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -683,50 +682,50 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8">
         <v>340</v>
@@ -744,10 +743,10 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="10">
         <v>70</v>
@@ -755,9 +754,9 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8">
         <v>340</v>
@@ -775,10 +774,10 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="10">
         <v>45</v>
@@ -786,9 +785,9 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8">
         <v>340</v>
@@ -817,9 +816,9 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <f>--D8</f>
@@ -836,7 +835,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -847,9 +846,9 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -865,10 +864,10 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I15" s="10">
         <v>55</v>
@@ -876,9 +875,9 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -894,10 +893,10 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I16" s="10">
         <v>58</v>
@@ -905,9 +904,9 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -925,9 +924,9 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8">
         <v>340</v>
@@ -949,9 +948,9 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -974,9 +973,9 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -999,9 +998,9 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -1024,9 +1023,9 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8">
         <v>340</v>
@@ -1049,9 +1048,9 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8">
         <v>340</v>
@@ -1068,7 +1067,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>

--- a/Costestimate.xlsx
+++ b/Costestimate.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Project Cost Estimation</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">    PWA Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Android/IOS implementation</t>
   </si>
   <si>
     <t>Monitoring and controlling</t>
@@ -218,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,7 +229,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,7 +367,7 @@
                 <a:noFill/>
               </a:ln>
             </a:rPr>
-            <a:t>End Date:12/09/2020</a:t>
+            <a:t>End Date:05/05/2021</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -651,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,11 +684,11 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -712,13 +708,13 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -731,24 +727,24 @@
         <v>340</v>
       </c>
       <c r="C11" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" s="8">
         <f>B11*C11</f>
-        <v>2720</v>
-      </c>
-      <c r="E11" s="9">
+        <v>4080</v>
+      </c>
+      <c r="E11" s="8">
         <f>$D11*6</f>
-        <v>16320</v>
+        <v>24480</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="10">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9">
         <v>70</v>
       </c>
       <c r="J11" s="5"/>
@@ -774,12 +770,12 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>45</v>
       </c>
       <c r="J12" s="5"/>
@@ -793,15 +789,15 @@
         <v>340</v>
       </c>
       <c r="C13" s="3">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8">
         <f>B13*C13</f>
-        <v>4080</v>
+        <v>16320</v>
       </c>
       <c r="E13" s="8">
         <f>D13*6</f>
-        <v>24480</v>
+        <v>97920</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3" t="s">
@@ -810,7 +806,7 @@
       <c r="H13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>60</v>
       </c>
       <c r="J13" s="5"/>
@@ -825,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -835,12 +831,12 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>52</v>
       </c>
       <c r="J14" s="5"/>
@@ -854,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -864,12 +860,12 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="10">
+        <v>31</v>
+      </c>
+      <c r="I15" s="9">
         <v>55</v>
       </c>
       <c r="J15" s="5"/>
@@ -883,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -893,12 +889,12 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>58</v>
       </c>
       <c r="J16" s="5"/>
@@ -912,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -932,15 +928,15 @@
         <v>340</v>
       </c>
       <c r="C18" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8">
         <f>B18*C18</f>
-        <v>4080</v>
+        <v>8160</v>
       </c>
       <c r="E18" s="8">
         <f>D18*6</f>
-        <v>24480</v>
+        <v>48960</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -956,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -981,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -1002,20 +998,20 @@
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
+      <c r="B21" s="8">
+        <v>340</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D21" s="8">
+        <f>B21*C21</f>
+        <v>4080</v>
+      </c>
+      <c r="E21" s="8">
+        <f>D21*6</f>
+        <v>24480</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1031,52 +1027,27 @@
         <v>340</v>
       </c>
       <c r="C22" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22" s="8">
         <f>B22*C22</f>
-        <v>3400</v>
+        <v>4080</v>
       </c>
       <c r="E22" s="8">
         <f>D22*6</f>
-        <v>20400</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+        <v>24480</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="8">
-        <v>340</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8">
-        <f>B23*C23</f>
-        <v>3400</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="8">
-        <f>D23*6</f>
-        <v>20400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="8">
-        <f>E11+E12+E13+E18+E22+E23</f>
-        <v>130560</v>
+        <f>E11+E12+E13+E18+E21+E22</f>
+        <v>244800</v>
       </c>
     </row>
   </sheetData>

--- a/Costestimate.xlsx
+++ b/Costestimate.xlsx
@@ -650,7 +650,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
